--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H2">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J2">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N2">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P2">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q2">
-        <v>32.08286064505511</v>
+        <v>41.13523004769066</v>
       </c>
       <c r="R2">
-        <v>288.745745805496</v>
+        <v>370.217070429216</v>
       </c>
       <c r="S2">
-        <v>0.005110753721521576</v>
+        <v>0.007610798323687429</v>
       </c>
       <c r="T2">
-        <v>0.005110753721521574</v>
+        <v>0.007610798323687429</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H3">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J3">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N3">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O3">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P3">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q3">
-        <v>138.1599387153779</v>
+        <v>148.5084294457513</v>
       </c>
       <c r="R3">
-        <v>1243.439448438401</v>
+        <v>1336.575865011762</v>
       </c>
       <c r="S3">
-        <v>0.02200868023480447</v>
+        <v>0.02747687820315546</v>
       </c>
       <c r="T3">
-        <v>0.02200868023480446</v>
+        <v>0.02747687820315546</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H4">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J4">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N4">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P4">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q4">
-        <v>8.344142067623666</v>
+        <v>13.771232836732</v>
       </c>
       <c r="R4">
-        <v>75.097278608613</v>
+        <v>123.941095530588</v>
       </c>
       <c r="S4">
-        <v>0.001329209873047439</v>
+        <v>0.002547939458887097</v>
       </c>
       <c r="T4">
-        <v>0.001329209873047439</v>
+        <v>0.002547939458887097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H5">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J5">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N5">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O5">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P5">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q5">
-        <v>10.40235264560044</v>
+        <v>12.56365680833733</v>
       </c>
       <c r="R5">
-        <v>93.62117381040402</v>
+        <v>113.072911275036</v>
       </c>
       <c r="S5">
-        <v>0.001657079868414925</v>
+        <v>0.002324514973306829</v>
       </c>
       <c r="T5">
-        <v>0.001657079868414924</v>
+        <v>0.002324514973306829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.84465033333333</v>
+        <v>66.47695399999999</v>
       </c>
       <c r="H6">
-        <v>185.533951</v>
+        <v>199.430862</v>
       </c>
       <c r="I6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164722</v>
       </c>
       <c r="J6">
-        <v>0.03153184209101587</v>
+        <v>0.04311983106164721</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N6">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O6">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P6">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q6">
-        <v>8.952487278069222</v>
+        <v>17.07770789275333</v>
       </c>
       <c r="R6">
-        <v>80.57238550262301</v>
+        <v>153.69937103478</v>
       </c>
       <c r="S6">
-        <v>0.001426118393227471</v>
+        <v>0.003159700102610401</v>
       </c>
       <c r="T6">
-        <v>0.00142611839322747</v>
+        <v>0.0031597001026104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J7">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N7">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P7">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q7">
-        <v>706.2362665228079</v>
+        <v>842.4068465204639</v>
       </c>
       <c r="R7">
-        <v>6356.126398705272</v>
+        <v>7581.661618684176</v>
       </c>
       <c r="S7">
-        <v>0.1125024251215347</v>
+        <v>0.1558612558609161</v>
       </c>
       <c r="T7">
-        <v>0.1125024251215347</v>
+        <v>0.1558612558609161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J8">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N8">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O8">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P8">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q8">
-        <v>3041.298604287872</v>
+        <v>3041.298604287873</v>
       </c>
       <c r="R8">
-        <v>27371.68743859085</v>
+        <v>27371.68743859086</v>
       </c>
       <c r="S8">
-        <v>0.4844745090559215</v>
+        <v>0.5626979669862457</v>
       </c>
       <c r="T8">
-        <v>0.4844745090559215</v>
+        <v>0.5626979669862456</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J9">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N9">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P9">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q9">
-        <v>183.6786253685489</v>
+        <v>282.020565175902</v>
       </c>
       <c r="R9">
-        <v>1653.107628316941</v>
+        <v>2538.185086583118</v>
       </c>
       <c r="S9">
-        <v>0.02925974178399722</v>
+        <v>0.05217915743263567</v>
       </c>
       <c r="T9">
-        <v>0.02925974178399722</v>
+        <v>0.05217915743263567</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J10">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N10">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O10">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P10">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q10">
-        <v>228.985774577892</v>
+        <v>257.290660594494</v>
       </c>
       <c r="R10">
-        <v>2060.871971201028</v>
+        <v>2315.615945350446</v>
       </c>
       <c r="S10">
-        <v>0.03647710572155097</v>
+        <v>0.04760365570054565</v>
       </c>
       <c r="T10">
-        <v>0.03647710572155097</v>
+        <v>0.04760365570054564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.6941067594101231</v>
+        <v>0.8830494168872806</v>
       </c>
       <c r="J11">
-        <v>0.6941067594101232</v>
+        <v>0.8830494168872804</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N11">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O11">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P11">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q11">
-        <v>197.070057477279</v>
+        <v>349.73374489587</v>
       </c>
       <c r="R11">
-        <v>1773.630517295511</v>
+        <v>3147.60370406283</v>
       </c>
       <c r="S11">
-        <v>0.0313929777271189</v>
+        <v>0.06470738090693734</v>
       </c>
       <c r="T11">
-        <v>0.0313929777271189</v>
+        <v>0.06470738090693734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H12">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I12">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J12">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N12">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P12">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q12">
-        <v>130.2137372867147</v>
+        <v>27.741013907072</v>
       </c>
       <c r="R12">
-        <v>1171.923635580432</v>
+        <v>249.669125163648</v>
       </c>
       <c r="S12">
-        <v>0.02074286173523872</v>
+        <v>0.005132614109524985</v>
       </c>
       <c r="T12">
-        <v>0.02074286173523871</v>
+        <v>0.005132614109524985</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H13">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I13">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J13">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N13">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O13">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P13">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q13">
-        <v>560.7455694947713</v>
+        <v>100.151971966504</v>
       </c>
       <c r="R13">
-        <v>5046.710125452942</v>
+        <v>901.3677476985362</v>
       </c>
       <c r="S13">
-        <v>0.08932596559352775</v>
+        <v>0.01853001574253871</v>
       </c>
       <c r="T13">
-        <v>0.08932596559352772</v>
+        <v>0.0185300157425387</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H14">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I14">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J14">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N14">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P14">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q14">
-        <v>33.866117335894</v>
+        <v>9.287123499696001</v>
       </c>
       <c r="R14">
-        <v>304.795056023046</v>
+        <v>83.584111497264</v>
       </c>
       <c r="S14">
-        <v>0.005394823956715451</v>
+        <v>0.001718294121156436</v>
       </c>
       <c r="T14">
-        <v>0.005394823956715449</v>
+        <v>0.001718294121156436</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H15">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I15">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J15">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N15">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O15">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P15">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q15">
-        <v>42.21971443081867</v>
+        <v>8.472751406512</v>
       </c>
       <c r="R15">
-        <v>379.977429877368</v>
+        <v>76.254762658608</v>
       </c>
       <c r="S15">
-        <v>0.006725540002061561</v>
+        <v>0.001567619826774787</v>
       </c>
       <c r="T15">
-        <v>0.00672554000206156</v>
+        <v>0.001567619826774786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>251.007014</v>
+        <v>44.831112</v>
       </c>
       <c r="H16">
-        <v>753.021042</v>
+        <v>134.493336</v>
       </c>
       <c r="I16">
-        <v>0.127977334927537</v>
+        <v>0.02907940059566787</v>
       </c>
       <c r="J16">
-        <v>0.1279773349275369</v>
+        <v>0.02907940059566786</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N16">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O16">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P16">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q16">
-        <v>36.33518966360734</v>
+        <v>11.51696323576</v>
       </c>
       <c r="R16">
-        <v>327.016706972466</v>
+        <v>103.65266912184</v>
       </c>
       <c r="S16">
-        <v>0.0057881436399935</v>
+        <v>0.002130856795672955</v>
       </c>
       <c r="T16">
-        <v>0.005788143639993498</v>
+        <v>0.002130856795672954</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H17">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I17">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J17">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N17">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P17">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q17">
-        <v>14.04677977738311</v>
+        <v>32.69102474817601</v>
       </c>
       <c r="R17">
-        <v>126.421017996448</v>
+        <v>294.219222733584</v>
       </c>
       <c r="S17">
-        <v>0.002237631887533058</v>
+        <v>0.006048460068524891</v>
       </c>
       <c r="T17">
-        <v>0.002237631887533058</v>
+        <v>0.00604846006852489</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H18">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I18">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J18">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N18">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O18">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P18">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q18">
-        <v>60.49031146762088</v>
+        <v>118.022744413857</v>
       </c>
       <c r="R18">
-        <v>544.4128032085879</v>
+        <v>1062.204699724713</v>
       </c>
       <c r="S18">
-        <v>0.009636019925697983</v>
+        <v>0.02183644784046615</v>
       </c>
       <c r="T18">
-        <v>0.009636019925697981</v>
+        <v>0.02183644784046615</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H19">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I19">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J19">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N19">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P19">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q19">
-        <v>3.653300350982665</v>
+        <v>10.944285785118</v>
       </c>
       <c r="R19">
-        <v>32.87970315884399</v>
+        <v>98.49857206606202</v>
       </c>
       <c r="S19">
-        <v>0.0005819655102201273</v>
+        <v>0.002024900597632818</v>
       </c>
       <c r="T19">
-        <v>0.0005819655102201273</v>
+        <v>0.002024900597632817</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H20">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I20">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J20">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N20">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O20">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P20">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q20">
-        <v>4.554442896972444</v>
+        <v>9.984599944446002</v>
       </c>
       <c r="R20">
-        <v>40.989986072752</v>
+        <v>89.86139950001402</v>
       </c>
       <c r="S20">
-        <v>0.0007255162263327358</v>
+        <v>0.001847340501846674</v>
       </c>
       <c r="T20">
-        <v>0.0007255162263327358</v>
+        <v>0.001847340501846673</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.07732933333333</v>
+        <v>52.83062100000001</v>
       </c>
       <c r="H21">
-        <v>81.23198799999999</v>
+        <v>158.491863</v>
       </c>
       <c r="I21">
-        <v>0.01380552833888228</v>
+        <v>0.0342682285413064</v>
       </c>
       <c r="J21">
-        <v>0.01380552833888228</v>
+        <v>0.03426822854130639</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N21">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O21">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P21">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q21">
-        <v>3.919651013858222</v>
+        <v>13.57201043283</v>
       </c>
       <c r="R21">
-        <v>35.276859124724</v>
+        <v>122.14809389547</v>
       </c>
       <c r="S21">
-        <v>0.0006243947890983745</v>
+        <v>0.002511079532835865</v>
       </c>
       <c r="T21">
-        <v>0.0006243947890983744</v>
+        <v>0.002511079532835864</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H22">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J22">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.5187653333333333</v>
+        <v>0.6187893333333333</v>
       </c>
       <c r="N22">
-        <v>1.556296</v>
+        <v>1.856368</v>
       </c>
       <c r="O22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725207</v>
       </c>
       <c r="P22">
-        <v>0.1620823073631256</v>
+        <v>0.1765034355725208</v>
       </c>
       <c r="Q22">
-        <v>134.8953435105485</v>
+        <v>10.00063455891378</v>
       </c>
       <c r="R22">
-        <v>1214.058091594936</v>
+        <v>90.00571103022399</v>
       </c>
       <c r="S22">
-        <v>0.0214886348972976</v>
+        <v>0.001850307209867288</v>
       </c>
       <c r="T22">
-        <v>0.02148863489729759</v>
+        <v>0.001850307209867288</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H23">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J23">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>2.233983666666667</v>
       </c>
       <c r="N23">
-        <v>6.701950999999999</v>
+        <v>6.701951000000001</v>
       </c>
       <c r="O23">
-        <v>0.6979826986091381</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="P23">
-        <v>0.697982698609138</v>
+        <v>0.6372213788099619</v>
       </c>
       <c r="Q23">
-        <v>580.9061915830046</v>
+        <v>36.10478244763256</v>
       </c>
       <c r="R23">
-        <v>5228.155724247041</v>
+        <v>324.943042028693</v>
       </c>
       <c r="S23">
-        <v>0.09253752379918635</v>
+        <v>0.006680070037555746</v>
       </c>
       <c r="T23">
-        <v>0.09253752379918634</v>
+        <v>0.006680070037555746</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H24">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J24">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.134921</v>
+        <v>0.207158</v>
       </c>
       <c r="N24">
-        <v>0.404763</v>
+        <v>0.6214740000000001</v>
       </c>
       <c r="O24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="P24">
-        <v>0.04215452650088467</v>
+        <v>0.05908973658186135</v>
       </c>
       <c r="Q24">
-        <v>35.08371410410367</v>
+        <v>3.348007702064667</v>
       </c>
       <c r="R24">
-        <v>315.753426936933</v>
+        <v>30.132069318582</v>
       </c>
       <c r="S24">
-        <v>0.005588785376904436</v>
+        <v>0.0006194449715493175</v>
       </c>
       <c r="T24">
-        <v>0.005588785376904436</v>
+        <v>0.0006194449715493174</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H25">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J25">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1682013333333333</v>
+        <v>0.1889926666666667</v>
       </c>
       <c r="N25">
-        <v>0.5046040000000001</v>
+        <v>0.566978</v>
       </c>
       <c r="O25">
-        <v>0.05255258679882404</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="P25">
-        <v>0.05255258679882403</v>
+        <v>0.05390825789608347</v>
       </c>
       <c r="Q25">
-        <v>43.73765011077379</v>
+        <v>3.054426590494889</v>
       </c>
       <c r="R25">
-        <v>393.638850996964</v>
+        <v>27.489839314454</v>
       </c>
       <c r="S25">
-        <v>0.006967344980463843</v>
+        <v>0.0005651268936095298</v>
       </c>
       <c r="T25">
-        <v>0.006967344980463842</v>
+        <v>0.0005651268936095296</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>260.0315303333334</v>
+        <v>16.16161433333333</v>
       </c>
       <c r="H26">
-        <v>780.094591</v>
+        <v>48.484843</v>
       </c>
       <c r="I26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="J26">
-        <v>0.1325785352324417</v>
+        <v>0.01048312291409786</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.1447576666666667</v>
+        <v>0.2568966666666667</v>
       </c>
       <c r="N26">
-        <v>0.434273</v>
+        <v>0.77069</v>
       </c>
       <c r="O26">
-        <v>0.04522788072802774</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="P26">
-        <v>0.04522788072802773</v>
+        <v>0.07327719113957255</v>
       </c>
       <c r="Q26">
-        <v>37.64155759081589</v>
+        <v>4.151864850185556</v>
       </c>
       <c r="R26">
-        <v>338.774018317343</v>
+        <v>37.36678365167</v>
       </c>
       <c r="S26">
-        <v>0.005996246178589497</v>
+        <v>0.000768173801515982</v>
       </c>
       <c r="T26">
-        <v>0.005996246178589496</v>
+        <v>0.0007681738015159819</v>
       </c>
     </row>
   </sheetData>
